--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466620.5085444778</v>
+        <v>497604.9916244172</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1658643.789940102</v>
+        <v>1781239.998976292</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23887306.11873709</v>
+        <v>24017305.13912855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4879902.93886899</v>
+        <v>4822850.592756241</v>
       </c>
     </row>
     <row r="11">
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2208,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2634,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3281,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>12.94601518175484</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>13.0757812975572</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>13.07578129755707</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>13.07578129755707</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>13.07578129755707</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3861,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>13.07578129755707</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>15.88452087691441</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>30.58141402471373</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>45.27830717251305</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>45.57213102227294</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.29070701235672</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.98760016015618</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>44.6844933079555</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>15.88452087691441</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>30.58141402471373</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>45.27830717251305</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>45.57213102227294</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>15.29070701235672</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>29.98760016015603</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>44.68449330795535</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>59.38138645575467</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>15.88452087691441</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>30.58141402471373</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>44.6844933079555</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15.29070701235672</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>29.98760016015603</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>44.68449330795535</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.481451578874994</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>16.17834472667431</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>30.87523787447363</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>45.57213102227294</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>15.29070701235672</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>29.98760016015603</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>44.6844933079555</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>15.88452087691441</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>30.58141402471373</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>45.27830717251305</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>46.17352655923239</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>15.29070701235672</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>29.98760016015618</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>44.6844933079555</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>29.39078723567662</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.39548762563752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>31.30930383384214</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>16.31400422380305</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.318704613763954</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>15.88452087691441</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>30.58141402471373</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>45.27830717251305</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>45.57213102227294</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>44.38608684571572</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>31.17822694919329</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>16.18292733915419</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.187627729115096</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>15.29070701235686</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>29.98760016015617</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>44.68449330795549</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>59.38138645575481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>15.88452087691424</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>29.98760016015586</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>44.68449330795502</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>31.17822694919295</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.18292733915402</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.18292733915402</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>15.2907070123567</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>29.98760016015586</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>44.68449330795502</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>46.17352655923189</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>31.17822694919295</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>16.18292733915402</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.481451578874831</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>16.17834472667399</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>30.87523787447315</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>45.57213102227231</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.39078723567631</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>14.39548762563738</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>15.2907070123567</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>29.98760016015586</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>44.68449330795502</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>44.38608684571525</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>31.17822694919295</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>16.18292733915402</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.187627729115084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.38138645575418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>89.35872216232906</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>83.98878642167111</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>38.87181201565983</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>16.76619772104772</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.09636626239171</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>51.91261060228356</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8228,7 +8230,7 @@
         <v>83.98878642167111</v>
       </c>
       <c r="O5" t="n">
-        <v>99.00804712831382</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8459,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>74.04503350661616</v>
+        <v>75.14322041372901</v>
       </c>
       <c r="N8" t="n">
-        <v>68.42730627354024</v>
+        <v>69.54326299292921</v>
       </c>
       <c r="O8" t="n">
-        <v>84.31378269605855</v>
+        <v>85.36754898137065</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>28.74009079028824</v>
+        <v>29.46666450132352</v>
       </c>
       <c r="M9" t="n">
-        <v>4.94295693345623</v>
+        <v>5.790834183966467</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>17.99414464209616</v>
+        <v>18.79031561679631</v>
       </c>
       <c r="P9" t="n">
-        <v>43.00209896284861</v>
+        <v>43.6410963617185</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
-        <v>50.20109223038389</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>9.073991596986673</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
-        <v>2.404964980679893</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.97075798639287</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
-        <v>50.20109223038389</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>9.073991596986673</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
-        <v>2.404964980679893</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.97075798639287</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>50.20109223038389</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>9.073991596986673</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>2.404964980679893</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.97075798639287</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L20" t="n">
-        <v>65.04643884432259</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>23.91933821092537</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>17.25031159461859</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>22.26754975382711</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>65.04643884432259</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>23.91933821092537</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
-        <v>17.25031159461859</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>22.26754975382711</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>65.04643884432259</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>23.91933821092537</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>16.65049961021703</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>36.81610460033158</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>50.49788399781814</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>23.91933821092539</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>17.25031159461861</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>36.81610460033158</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>65.04643884432259</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>23.91933821092537</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>17.25031159461859</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>36.21629261593001</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>65.04643884432259</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>23.91933821092537</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>17.25031159461859</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>22.26754975382711</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>65.04643884432244</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>23.31952622652366</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>17.25031159461844</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>36.81610460033141</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>50.49788399781798</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>23.91933821092522</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>17.25031159461844</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>36.81610460033141</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>50.20109223038389</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>9.073991596986673</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>2.404964980679893</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.97075798639287</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>69.71892126248258</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.29789439039959</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.19767194480292</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.180569077725</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H2" t="n">
-        <v>349.6598249464623</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>253.2845231898766</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>101.17202184758</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>58.29051612840931</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>13.7627297632223</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>51.80080109985101</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.6935628343943</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>209.6584962505987</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>235.2672937814706</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>219.3436445631938</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>248.788833337017</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>137.7503459159327</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>116.9507599882392</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>81.45811026959613</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>11.04044456262881</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.82637802552915</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
-        <v>154.3921839405207</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>208.0224770741423</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.2343807020206</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>167.5776180378764</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>167.7355108777182</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>132.2802453397308</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>87.46423987719798</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>61.01644271081538</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>57.64716518774021</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
-        <v>45.30505538511906</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>70.7260729557852</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>89.84907843621556</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.6385858692978</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>221.05342233419</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>243.6919922925021</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>218.0866353446397</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>291.219579948833</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -23033,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0933569378507</v>
+        <v>422.099611161265</v>
       </c>
       <c r="H8" t="n">
-        <v>348.766663618974</v>
+        <v>348.8307146845167</v>
       </c>
       <c r="I8" t="n">
-        <v>249.9222771673705</v>
+        <v>250.1633931155539</v>
       </c>
       <c r="J8" t="n">
-        <v>93.77000049091893</v>
+        <v>94.30081988543641</v>
       </c>
       <c r="K8" t="n">
-        <v>47.19680489086682</v>
+        <v>47.99236556251563</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.9869633614670761</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.2595863707439</v>
+        <v>40.15895151551314</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.2756328645375</v>
+        <v>108.9510186332787</v>
       </c>
       <c r="R8" t="n">
-        <v>204.1801566692163</v>
+        <v>204.5730235307707</v>
       </c>
       <c r="S8" t="n">
-        <v>233.2799471440838</v>
+        <v>233.4224652601393</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9618734208938</v>
+        <v>218.9892512838904</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7818563658271</v>
+        <v>248.7823567037002</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.968302702022</v>
+        <v>160.9716490065592</v>
       </c>
       <c r="H9" t="n">
-        <v>137.2996833538022</v>
+        <v>137.3320016107803</v>
       </c>
       <c r="I9" t="n">
-        <v>115.3441745601174</v>
+        <v>115.4593872382636</v>
       </c>
       <c r="J9" t="n">
-        <v>77.04951705849162</v>
+        <v>77.36566945338933</v>
       </c>
       <c r="K9" t="n">
-        <v>3.505456574455792</v>
+        <v>4.045811373348556</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.86993696819728</v>
+        <v>48.29708980702105</v>
       </c>
       <c r="R9" t="n">
-        <v>151.4950089952352</v>
+        <v>151.7027734120298</v>
       </c>
       <c r="S9" t="n">
-        <v>207.155739585213</v>
+        <v>207.2178957243148</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9072076709146</v>
+        <v>229.9206956264836</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6464844945162</v>
+        <v>249.6467046461305</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1952603384582</v>
+        <v>169.1980657677725</v>
       </c>
       <c r="H10" t="n">
-        <v>167.229802441839</v>
+        <v>167.254745258834</v>
       </c>
       <c r="I10" t="n">
-        <v>166.5590548534935</v>
+        <v>166.6434217641473</v>
       </c>
       <c r="J10" t="n">
-        <v>129.5144356358626</v>
+        <v>129.7127794883883</v>
       </c>
       <c r="K10" t="n">
-        <v>82.91916491057385</v>
+        <v>83.24510478909755</v>
       </c>
       <c r="L10" t="n">
-        <v>55.200311568079</v>
+        <v>55.61740239541678</v>
       </c>
       <c r="M10" t="n">
-        <v>51.51487037948513</v>
+        <v>51.95463417646357</v>
       </c>
       <c r="N10" t="n">
-        <v>39.31857284105145</v>
+        <v>39.74788003785815</v>
       </c>
       <c r="O10" t="n">
-        <v>65.19658738606127</v>
+        <v>65.59312206769559</v>
       </c>
       <c r="P10" t="n">
-        <v>85.11764828316647</v>
+        <v>85.4569522067877</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.3627888804421</v>
+        <v>148.5977053296661</v>
       </c>
       <c r="R10" t="n">
-        <v>219.2944285325528</v>
+        <v>219.4205708360879</v>
       </c>
       <c r="S10" t="n">
-        <v>243.0102310475085</v>
+        <v>243.059122029287</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9194847003273</v>
+        <v>217.9314715346705</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2174461108205</v>
+        <v>291.2175991342377</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H11" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I11" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J11" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.31839352591157</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R11" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S11" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I12" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J12" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R12" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I13" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L13" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M13" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N13" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O13" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P13" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R13" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S13" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T13" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.31839352591157</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S14" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J15" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R15" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S15" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L16" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M16" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O16" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P16" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R16" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.31839352591157</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.31839352591157</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R20" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>211.7724950342527</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>233.9069087133812</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
-        <v>298.4590953870844</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
-        <v>333.9715326895742</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
         <v>377.9289763951821</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,22 +24092,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>188.6331053507721</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>214.2638853017831</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>234.7881132491</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
-        <v>236.2241438826152</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L22" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M22" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24212,25 +24214,25 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>345.1132083223486</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>49.28982991839834</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.31839352591157</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>166.0919821162101</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>202.4967949811414</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24285,7 +24287,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>190.7666463176822</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>188.6331053507721</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>268.4039101489924</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>215.1877170970243</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
         <v>242.8962664135933</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>49.28982991839834</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.47304691197287</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>166.0919821162101</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>210.0029297178712</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24522,28 +24524,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>190.7666463176822</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>157.2535957655735</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>172.6151986836641</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>159.1390015113852</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24680,7 +24682,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>318.7517728602697</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24692,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24722,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.24261222835437</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>310.5463788653547</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>333.9715326895742</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24759,28 +24761,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>188.9970810013007</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>157.2535957655735</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>174.3847640000456</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>124.3578835015258</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24926,22 +24928,22 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>384.3010709594303</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8779973425724</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.24261222835437</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24980,7 +24982,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>333.9715326895742</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>45.26949665037074</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>214.2638853017831</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>234.7881132491</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25059,7 +25061,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>215.1877170970243</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>332.031252992076</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>220.8120050903407</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>47.52026460201684</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.31839352591157</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R35" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>310.5463788653547</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
@@ -25236,25 +25238,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>157.2535957655735</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>174.3847640000456</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>159.1390015113852</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>93.68260413958085</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25433,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.2426122283545</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
-        <v>298.4590953870846</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>310.5463788653548</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>363.0836297812436</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="39">
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,31 +25514,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>126.1274488179074</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>268.4039101489926</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
-        <v>215.1877170970244</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>228.0509197996548</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="40">
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25670,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.47304691197303</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
-        <v>298.4590953870846</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>310.5463788653548</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>335.7410980059558</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
         <v>377.9289763951821</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,25 +25751,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.753332052701452</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>236.5576785654816</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
-        <v>234.4545785662338</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>268.4039101489926</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,19 +25879,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7233439565111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>344.9772681738309</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6573517042794</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>62.36561121595554</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1297661158023686</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.31839352591157</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>180.9373287301489</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>224.8482763318099</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3421415950802</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7522553273199</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7703283035628</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3876674528942</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>108.5279507535195</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>58.34527794792794</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.59867866664</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>139.2032301154645</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>203.4784519647108</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1092319157218</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6334598630387</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0292852531811</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7541330472846</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>161.5677313798881</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>117.7799971067728</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>63.63587773020002</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>30.52434298061156</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>25.49752133009656</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>13.91985820042288</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>41.73676351435135</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>65.04371615110908</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.4646387851038</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>211.8315851527306</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>240.1177379704524</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2103184268706</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2083929243508</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>392191.5207785541</v>
+        <v>388870.6803191827</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>400238.0968963132</v>
+        <v>399661.0546997346</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424439.9192941537</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424439.9192941537</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424439.9192941537</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434863.8827920362</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434863.8827920362</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434863.8827920362</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434863.8827920362</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434863.8827920362</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434863.8827920362</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434863.8827920361</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434863.882792036</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424439.9192941537</v>
+        <v>424956.9623809445</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128874.5116613649</v>
+        <v>127589.5413650315</v>
       </c>
       <c r="C2" t="n">
         <v>128874.5116613649</v>
       </c>
       <c r="D2" t="n">
-        <v>132174.54662458</v>
+        <v>131937.892003274</v>
       </c>
       <c r="E2" t="n">
-        <v>143041.2520359758</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="F2" t="n">
-        <v>143041.2520359758</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="G2" t="n">
-        <v>143041.2520359758</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="H2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="I2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="J2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="K2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="L2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="M2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="N2" t="n">
-        <v>146204.1410165274</v>
+        <v>143326.6614602754</v>
       </c>
       <c r="O2" t="n">
-        <v>146204.1410165275</v>
+        <v>143326.6614602755</v>
       </c>
       <c r="P2" t="n">
-        <v>143041.2520359758</v>
+        <v>143326.6614602755</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337891.9184474517</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6633.965728588497</v>
       </c>
       <c r="D3" t="n">
-        <v>18579.062267641</v>
+        <v>17246.70640045116</v>
       </c>
       <c r="E3" t="n">
-        <v>73945.79788771573</v>
+        <v>77889.27155607409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4005.408124560125</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19887.37597905519</v>
+        <v>20278.67193131407</v>
       </c>
       <c r="C4" t="n">
         <v>19887.3759790552</v>
       </c>
       <c r="D4" t="n">
-        <v>18400.51775863738</v>
+        <v>18507.14446805444</v>
       </c>
       <c r="E4" t="n">
-        <v>11209.63563466814</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="F4" t="n">
-        <v>11209.63563466815</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="G4" t="n">
-        <v>11209.63563466814</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="H4" t="n">
-        <v>12507.12132797432</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="I4" t="n">
-        <v>12507.12132797432</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="J4" t="n">
-        <v>12507.12132797432</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="K4" t="n">
-        <v>12507.12132797433</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="L4" t="n">
-        <v>12507.12132797432</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="M4" t="n">
-        <v>12507.12132797432</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="N4" t="n">
-        <v>12507.12132797431</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="O4" t="n">
-        <v>12507.12132797431</v>
+        <v>10902.16260681535</v>
       </c>
       <c r="P4" t="n">
-        <v>11209.63563466815</v>
+        <v>10902.16260681535</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41271.79307559616</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
         <v>41271.79307559616</v>
       </c>
       <c r="D5" t="n">
-        <v>41744.72270709982</v>
+        <v>41710.80761707942</v>
       </c>
       <c r="E5" t="n">
-        <v>10123.6106016586</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>10123.6106016586</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10123.6106016586</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>11026.20767578607</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>11026.20767578607</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>11026.20767578607</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>11026.20767578607</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>11026.20767578607</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>11026.20767578607</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>11026.20767578606</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>11026.20767578606</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
-        <v>10123.6106016586</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270176.5758407381</v>
+        <v>-264673.8593169387</v>
       </c>
       <c r="C6" t="n">
-        <v>67715.34260671356</v>
+        <v>61081.37687812505</v>
       </c>
       <c r="D6" t="n">
-        <v>53450.24389120184</v>
+        <v>54473.23351768899</v>
       </c>
       <c r="E6" t="n">
-        <v>47762.20791193334</v>
+        <v>44338.5272986222</v>
       </c>
       <c r="F6" t="n">
-        <v>121708.0057996491</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="G6" t="n">
-        <v>121708.0057996491</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="H6" t="n">
-        <v>118665.4038882069</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="I6" t="n">
-        <v>122670.812012767</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="J6" t="n">
-        <v>122670.812012767</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="K6" t="n">
-        <v>122670.812012767</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="L6" t="n">
-        <v>122670.812012767</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="M6" t="n">
-        <v>122670.812012767</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="N6" t="n">
-        <v>122670.8120127671</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="O6" t="n">
-        <v>122670.8120127671</v>
+        <v>122227.7988546963</v>
       </c>
       <c r="P6" t="n">
-        <v>121708.0057996491</v>
+        <v>122227.7988546963</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
         <v>350.6510585135856</v>
       </c>
       <c r="D3" t="n">
-        <v>372.3450783073314</v>
+        <v>370.7893402330007</v>
       </c>
       <c r="E3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>464.385807415532</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26807,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="D3" t="n">
-        <v>21.69401979374578</v>
+        <v>20.13828171941509</v>
       </c>
       <c r="E3" t="n">
-        <v>92.04072910820065</v>
+        <v>96.94919182038664</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.84534661393847</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>14.84534661393847</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409652496537026</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>14.43660363015982</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>54.34562787274375</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>119.6424935779595</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3130837563719</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>222.453736347267</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
-        <v>247.5226439325573</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>251.5278190883431</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5105870759031</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>202.7097910676452</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.2266110354129</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>88.54908363559406</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>32.12245626483752</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.170753803590836</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.284279536291656</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
-        <v>25.96802650312874</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>71.25824954189763</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>121.7916983141008</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
-        <v>163.7639684124062</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>191.1048268899041</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>179.4506412376083</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>144.0249602411744</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.27687176395656</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>46.8284564558332</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
-        <v>14.00950219627391</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>3.040078516735708</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04962043280852628</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6323215809261378</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>5.621913692234211</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0156344518515</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>44.70513577147794</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46427094760035</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>94.00897394969145</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>99.11928199917629</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
-        <v>96.7624470157244</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>89.37578127490541</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>76.47642102401213</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.94830983555142</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>28.43147762964252</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>11.01964064214005</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.701737663957134</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.496864636411381</v>
+        <v>1.490610412996987</v>
       </c>
       <c r="H8" t="n">
-        <v>15.32976495764806</v>
+        <v>15.26571389210539</v>
       </c>
       <c r="I8" t="n">
-        <v>57.70787389524983</v>
+        <v>57.46675794706638</v>
       </c>
       <c r="J8" t="n">
-        <v>127.0445149346206</v>
+        <v>126.5136955401031</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4067949939144</v>
+        <v>189.6112343222656</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2164661104893</v>
+        <v>235.2295027490222</v>
       </c>
       <c r="M8" t="n">
-        <v>262.8363325882702</v>
+        <v>261.7381456811573</v>
       </c>
       <c r="N8" t="n">
-        <v>267.089299236474</v>
+        <v>265.973342517085</v>
       </c>
       <c r="O8" t="n">
-        <v>252.2048515081583</v>
+        <v>251.1510852228462</v>
       </c>
       <c r="P8" t="n">
-        <v>215.2510057967523</v>
+        <v>214.3516406519831</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.6445410052697</v>
+        <v>160.9691552365285</v>
       </c>
       <c r="R8" t="n">
-        <v>94.02742321697652</v>
+        <v>93.63455635542205</v>
       </c>
       <c r="S8" t="n">
-        <v>34.10980290222439</v>
+        <v>33.96728478616887</v>
       </c>
       <c r="T8" t="n">
-        <v>6.552524945890825</v>
+        <v>6.525147082894312</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1197491709129105</v>
+        <v>0.1192488330397589</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8008931873025619</v>
+        <v>0.7975468827653223</v>
       </c>
       <c r="H9" t="n">
-        <v>7.734942098422112</v>
+        <v>7.702623841444034</v>
       </c>
       <c r="I9" t="n">
-        <v>27.57461193125049</v>
+        <v>27.4593992531043</v>
       </c>
       <c r="J9" t="n">
-        <v>75.66684275300214</v>
+        <v>75.35069035810443</v>
       </c>
       <c r="K9" t="n">
-        <v>129.3266863022738</v>
+        <v>128.786331503381</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8956896377778</v>
+        <v>173.1691159267425</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9280676774956</v>
+        <v>202.0801904269854</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>190.5528628579038</v>
+        <v>189.7566918832037</v>
       </c>
       <c r="P9" t="n">
-        <v>152.9354718806094</v>
+        <v>152.2964744817395</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.2333128212884</v>
+        <v>101.8061599824647</v>
       </c>
       <c r="R9" t="n">
-        <v>49.72563140111873</v>
+        <v>49.51786698432415</v>
       </c>
       <c r="S9" t="n">
-        <v>14.87623968520328</v>
+        <v>14.81408354610148</v>
       </c>
       <c r="T9" t="n">
-        <v>3.228161575136202</v>
+        <v>3.214673619567241</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05269034126990541</v>
+        <v>0.05247018965561333</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6714419444886303</v>
+        <v>0.6686365151742635</v>
       </c>
       <c r="H10" t="n">
-        <v>5.969729288271645</v>
+        <v>5.944786471276638</v>
       </c>
       <c r="I10" t="n">
-        <v>20.19209047607627</v>
+        <v>20.1077235654224</v>
       </c>
       <c r="J10" t="n">
-        <v>47.47094547534616</v>
+        <v>47.27260162282042</v>
       </c>
       <c r="K10" t="n">
-        <v>78.00934591422448</v>
+        <v>77.68340603570078</v>
       </c>
       <c r="L10" t="n">
-        <v>99.82510509242783</v>
+        <v>99.40801426509006</v>
       </c>
       <c r="M10" t="n">
-        <v>105.2515768074314</v>
+        <v>104.8118130104529</v>
       </c>
       <c r="N10" t="n">
-        <v>102.748929559792</v>
+        <v>102.3196223629853</v>
       </c>
       <c r="O10" t="n">
-        <v>94.90526684462934</v>
+        <v>94.50873216299502</v>
       </c>
       <c r="P10" t="n">
-        <v>81.20785117706122</v>
+        <v>80.86854725343998</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.22410682440704</v>
+        <v>55.98919037518311</v>
       </c>
       <c r="R10" t="n">
-        <v>30.19047143127968</v>
+        <v>30.0643291277446</v>
       </c>
       <c r="S10" t="n">
-        <v>11.70140188713367</v>
+        <v>11.65251090535511</v>
       </c>
       <c r="T10" t="n">
-        <v>2.868888308269602</v>
+        <v>2.856901473926398</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03662410606301624</v>
+        <v>0.03647108264586896</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H11" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I11" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J11" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K11" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L11" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M11" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N11" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P11" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S11" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H12" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I12" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J12" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K12" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R12" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S12" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T12" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J13" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M13" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N13" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O13" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P13" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R13" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S13" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T13" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R14" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I16" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L16" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R20" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.172256771704486</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M21" t="n">
-        <v>222.7163712248907</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N21" t="n">
-        <v>206.9326005358137</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>223.3923541139387</v>
+        <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I22" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>97.29263309459832</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L22" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M24" t="n">
-        <v>222.7163712248905</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N24" t="n">
-        <v>206.9326005358137</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>223.3923541139387</v>
+        <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M27" t="n">
-        <v>222.7163712248905</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9326005358137</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>223.3923541139388</v>
+        <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M30" t="n">
-        <v>222.7163712248905</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9326005358138</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>223.3923541139387</v>
+        <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M33" t="n">
-        <v>222.7163712248907</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9326005358137</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>223.3923541139387</v>
+        <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M36" t="n">
-        <v>222.7163712248905</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9326005358137</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>223.3923541139387</v>
+        <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M39" t="n">
-        <v>222.7163712248904</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9326005358135</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>223.3923541139385</v>
+        <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>216.881315057603</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M42" t="n">
-        <v>222.7163712248904</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9326005358135</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>223.3923541139385</v>
+        <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.866877617750881</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>19.11916040279122</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>71.97279935834092</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>158.448904209584</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>237.4738337689788</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>294.6072896632224</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>327.8073744978997</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>333.1116405293344</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>314.547876217824</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>268.4593350295991</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.6017803438956</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
-        <v>117.2702511560439</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>42.54147371449825</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.172256771704486</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1493502094200705</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9988675857617104</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>9.646957999330205</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>34.39083573784837</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>94.37108186356582</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>161.2952101096004</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>190.7398988986551</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.5045711228457</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>62.01741028088938</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>18.55352730570544</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>4.026137330328998</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06571497274748098</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8374170297657134</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.445398682826076</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
-        <v>25.18341394968164</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>59.20538400443593</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>97.29263309459832</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
-        <v>124.5010736798953</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>131.2689258568199</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>128.1476442004206</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>118.3650907163393</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>101.2817833091186</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.12225691974534</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>37.65331481110198</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>14.59389496418975</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>3.578054581726229</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04567729253267533</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36124,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2967917674342384</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.9487428621029</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>14.84534661393885</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36361,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2967917674342384</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.9487428621029</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>14.24553462953714</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>14.84534661393885</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36835,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2967917674342401</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>13.9487428621029</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>14.84534661393885</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37072,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>14.24553462953714</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>14.84534661393885</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2967917674342384</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13.9487428621029</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.8453466139387</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2967917674340879</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.9487428621029</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14.24553462953699</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.84534661393855</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497604.9916244172</v>
+        <v>362420.5363486727</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1781239.998976292</v>
+        <v>1664213.506290206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24017305.13912855</v>
+        <v>23879529.32664355</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4822850.592756241</v>
+        <v>4876956.996057791</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3152,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>14.5130235650322</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>14.5130235650322</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>14.51302356503219</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>14.5130235650322</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>14.51302356503219</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>14.51302356503219</v>
       </c>
     </row>
     <row r="43">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.51302356503219</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
     </row>
     <row r="45">
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14.5130235650322</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>17.63048957150821</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>33.86798166897863</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>33.86798166897863</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>51.24875246727848</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>51.24875246727848</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16.97140584920886</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>49.59605010302778</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>15.97778720725752</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>15.97778720725752</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>17.63048957150821</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.97140584920883</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>33.2837279761183</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>49.59605010302777</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>15.97778720725752</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>15.97778720725752</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>17.63048957150821</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>15.97778720725752</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>15.97778720725752</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.97140584920886</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>33.28372797611833</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>51.24875246727848</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>17.63048957150821</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>50.25513382532715</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16.97140584920886</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>33.28372797611833</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.90837222993724</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.264843889044</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>17.55565954206919</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>33.86798166897868</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.97140584920886</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>33.28372797611835</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>49.59605010302783</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>17.55565954206919</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>33.86798166897868</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.97140584920885</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>33.28372797611834</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>49.59605010302783</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>17.63048957150823</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>33.86798166897868</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>33.86798166897868</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>15.97778720725753</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>15.97778720725753</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>15.97778720725753</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.97140584920886</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>33.28372797611835</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>49.59605010302784</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>15.97778720725753</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>15.97778720725753</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.887043131405942</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>19.19936525831543</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>35.51168738522492</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.8240095121344</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>49.26484388904405</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>32.62131554815079</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>51.24875246727853</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>34.60522412638527</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>17.96169578549201</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.97140584920886</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>33.28372797611834</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>49.59605010302783</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>65.90837222993731</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.318167444598746</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>89.35872216232906</v>
+        <v>90.24443850190528</v>
       </c>
       <c r="N5" t="n">
-        <v>83.98878642167111</v>
+        <v>84.8888345776096</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>38.87181201565983</v>
+        <v>39.45781263504654</v>
       </c>
       <c r="M6" t="n">
-        <v>16.76619772104772</v>
+        <v>17.45003280400843</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.09636626239171</v>
+        <v>29.73849888737649</v>
       </c>
       <c r="P6" t="n">
-        <v>51.91261060228356</v>
+        <v>52.42797864524607</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>75.14322041372901</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N8" t="n">
-        <v>69.54326299292921</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
-        <v>85.36754898137065</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>29.46666450132352</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M9" t="n">
-        <v>5.790834183966467</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>18.79031561679631</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P9" t="n">
-        <v>43.6410963617185</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>48.07411698098343</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>6.707321807773326</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>19.69981775191462</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>67.78072631241463</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>48.07411698098343</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>6.707321807773326</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>19.69981775191462</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>67.78072631241463</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.69308435253603</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>48.07411698098343</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>6.707321807773326</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>19.69981775191462</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>67.78072631241463</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846774</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>23.10882897693536</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939892</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846774</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525764</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.40150716916197</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>19.69981775191462</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>48.07411698098343</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525764</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.47709305748425</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>36.10132492107665</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846774</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525764</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.47709305748425</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>35.5111696757632</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>67.78072631241463</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>48.07411698098343</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1088289769354</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939898</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>48.07411698098343</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1088289769354</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939898</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253598</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846776</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1088289769354</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939898</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846776</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525765</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.47709305748427</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>33.92644675979635</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>67.78072631241463</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>39.13339190934371</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>3.820587744020401</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.180569077725</v>
+        <v>422.1856132717813</v>
       </c>
       <c r="H5" t="n">
-        <v>349.6598249464623</v>
+        <v>349.7114837988406</v>
       </c>
       <c r="I5" t="n">
-        <v>253.2845231898766</v>
+        <v>253.4789894812294</v>
       </c>
       <c r="J5" t="n">
-        <v>101.17202184758</v>
+        <v>101.60014151286</v>
       </c>
       <c r="K5" t="n">
-        <v>58.29051612840931</v>
+        <v>58.93215652808965</v>
       </c>
       <c r="L5" t="n">
-        <v>13.7627297632223</v>
+        <v>14.55874141675102</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.849889951291857</v>
       </c>
       <c r="P5" t="n">
-        <v>51.80080109985101</v>
+        <v>52.52616251037963</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.6935628343943</v>
+        <v>118.2382790452841</v>
       </c>
       <c r="R5" t="n">
-        <v>209.6584962505987</v>
+        <v>209.9753536054835</v>
       </c>
       <c r="S5" t="n">
-        <v>235.2672937814706</v>
+        <v>235.382238353527</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3436445631938</v>
+        <v>219.365725522675</v>
       </c>
       <c r="U5" t="n">
-        <v>248.788833337017</v>
+        <v>248.7892368725415</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0176641923887</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7503459159327</v>
+        <v>137.7764114318178</v>
       </c>
       <c r="I6" t="n">
-        <v>116.9507599882392</v>
+        <v>117.0436820135333</v>
       </c>
       <c r="J6" t="n">
-        <v>81.45811026959613</v>
+        <v>81.71309540932363</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04044456262881</v>
+        <v>11.47625477985859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.82637802552915</v>
+        <v>54.1708879139572</v>
       </c>
       <c r="R6" t="n">
-        <v>154.3921839405207</v>
+        <v>154.5597513532676</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0224770741423</v>
+        <v>208.0726076189985</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1061691167349</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6497319609877</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2366433538217</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5776180378764</v>
+        <v>167.5977350693439</v>
       </c>
       <c r="I7" t="n">
-        <v>167.7355108777182</v>
+        <v>167.8035549882441</v>
       </c>
       <c r="J7" t="n">
-        <v>132.2802453397308</v>
+        <v>132.4402148220646</v>
       </c>
       <c r="K7" t="n">
-        <v>87.46423987719798</v>
+        <v>87.72711887735554</v>
       </c>
       <c r="L7" t="n">
-        <v>61.01644271081538</v>
+        <v>61.35283732494501</v>
       </c>
       <c r="M7" t="n">
-        <v>57.64716518774021</v>
+        <v>58.00184614233463</v>
       </c>
       <c r="N7" t="n">
-        <v>45.30505538511906</v>
+        <v>45.65130281936413</v>
       </c>
       <c r="O7" t="n">
-        <v>70.7260729557852</v>
+        <v>71.04588850308173</v>
       </c>
       <c r="P7" t="n">
-        <v>89.84907843621556</v>
+        <v>90.12273588677081</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.6385858692978</v>
+        <v>151.8280521032924</v>
       </c>
       <c r="R7" t="n">
-        <v>221.05342233419</v>
+        <v>221.1551593869897</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6919922925021</v>
+        <v>243.7314241425257</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0866353446397</v>
+        <v>218.0963030386987</v>
       </c>
       <c r="U7" t="n">
-        <v>291.219579948833</v>
+        <v>291.219703366204</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.099611161265</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H8" t="n">
-        <v>348.8307146845167</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I8" t="n">
-        <v>250.1633931155539</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J8" t="n">
-        <v>94.30081988543641</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>47.99236556251563</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9869633614670761</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>40.15895151551314</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.9510186332787</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R8" t="n">
-        <v>204.5730235307707</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S8" t="n">
-        <v>233.4224652601393</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9892512838904</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7823567037002</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.9716490065592</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H9" t="n">
-        <v>137.3320016107803</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I9" t="n">
-        <v>115.4593872382636</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J9" t="n">
-        <v>77.36566945338933</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>4.045811373348556</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>48.29708980702105</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R9" t="n">
-        <v>151.7027734120298</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S9" t="n">
-        <v>207.2178957243148</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9206956264836</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6467046461305</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1980657677725</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H10" t="n">
-        <v>167.254745258834</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I10" t="n">
-        <v>166.6434217641473</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J10" t="n">
-        <v>129.7127794883883</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>83.24510478909755</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L10" t="n">
-        <v>55.61740239541678</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>51.95463417646357</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N10" t="n">
-        <v>39.74788003785815</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O10" t="n">
-        <v>65.59312206769559</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>85.4569522067877</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.5977053296661</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R10" t="n">
-        <v>219.4205708360879</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S10" t="n">
-        <v>243.059122029287</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9314715346705</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2175991342377</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23518,7 +23518,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S14" t="n">
         <v>224.5411397984024</v>
@@ -23594,10 +23594,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J15" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23679,22 +23679,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L16" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M16" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O16" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P16" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q16" t="n">
         <v>133.9583773647877</v>
@@ -23755,7 +23755,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S17" t="n">
         <v>224.5411397984024</v>
@@ -23831,10 +23831,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J18" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23916,22 +23916,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M19" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O19" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P19" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q19" t="n">
         <v>133.9583773647877</v>
@@ -23992,7 +23992,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S20" t="n">
         <v>224.5411397984024</v>
@@ -24068,10 +24068,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J21" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24153,22 +24153,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M22" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O22" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P22" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q22" t="n">
         <v>133.9583773647877</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>364.5563275970632</v>
+        <v>348.0792345395789</v>
       </c>
       <c r="C23" t="n">
         <v>333.5971194742085</v>
@@ -24217,10 +24217,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H23" t="n">
         <v>344.8392336363538</v>
@@ -24229,7 +24229,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S23" t="n">
         <v>224.5411397984024</v>
@@ -24271,7 +24271,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>334.3038557384807</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24305,10 +24305,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J24" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720379</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>122.2783901714379</v>
       </c>
       <c r="S24" t="n">
         <v>203.3445011265852</v>
@@ -24341,13 +24341,13 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>268.7362331978989</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24390,22 +24390,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M25" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O25" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P25" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q25" t="n">
         <v>133.9583773647877</v>
@@ -24466,7 +24466,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>180.0906730958467</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S26" t="n">
         <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>200.8060473231146</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>234.2381534990876</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24508,7 +24508,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>332.3397862460286</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24542,10 +24542,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J27" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720379</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>124.2424596638901</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>186.8674080691009</v>
       </c>
       <c r="T27" t="n">
         <v>229.0801644257012</v>
@@ -24584,7 +24584,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24627,22 +24627,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L28" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M28" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O28" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P28" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q28" t="n">
         <v>133.9583773647877</v>
@@ -24685,7 +24685,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>304.6187320782154</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24703,7 +24703,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>180.0906730958467</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S29" t="n">
         <v>224.5411397984024</v>
@@ -24739,13 +24739,13 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>348.8168793035129</v>
+        <v>332.3397862460286</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24761,7 +24761,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>203.8424276152394</v>
+        <v>187.3653345577551</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24779,10 +24779,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J30" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>234.7869016151402</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>213.5559706534787</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24864,22 +24864,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L31" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M31" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O31" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P31" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q31" t="n">
         <v>133.9583773647877</v>
@@ -24931,7 +24931,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H32" t="n">
         <v>344.8392336363538</v>
@@ -24940,7 +24940,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S32" t="n">
         <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>200.8060473231146</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>298.7914184359909</v>
       </c>
       <c r="W32" t="n">
         <v>325.3917254792934</v>
@@ -25016,10 +25016,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J33" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720379</v>
       </c>
       <c r="R33" t="n">
         <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>188.831477561553</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25101,22 +25101,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L34" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M34" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O34" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P34" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q34" t="n">
         <v>133.9583773647877</v>
@@ -25156,7 +25156,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>317.1200264167241</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25177,7 +25177,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>50.38579677903547</v>
       </c>
       <c r="R35" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>210.0281162333702</v>
       </c>
       <c r="T35" t="n">
         <v>217.2831403805989</v>
@@ -25216,7 +25216,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>308.914632421809</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
@@ -25238,13 +25238,13 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>155.6218493220279</v>
       </c>
       <c r="E36" t="n">
-        <v>187.4605452976028</v>
+        <v>170.9834522401185</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>157.5072550678396</v>
       </c>
       <c r="G36" t="n">
         <v>160.7631167826437</v>
@@ -25253,10 +25253,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J36" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>188.831477561553</v>
       </c>
       <c r="T36" t="n">
         <v>229.0801644257012</v>
@@ -25338,22 +25338,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L37" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M37" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O37" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P37" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q37" t="n">
         <v>133.9583773647877</v>
@@ -25393,13 +25393,13 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5971194742085</v>
+        <v>319.0840959091763</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>343.481461878803</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
@@ -25414,7 +25414,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S38" t="n">
         <v>224.5411397984024</v>
@@ -25447,13 +25447,13 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>308.914632421809</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25475,7 +25475,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>157.58591881448</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>144.2860237251593</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>118.84092628548</v>
       </c>
       <c r="I39" t="n">
-        <v>108.279659353452</v>
+        <v>91.80256629596762</v>
       </c>
       <c r="J39" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25575,22 +25575,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M40" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O40" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P40" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q40" t="n">
         <v>133.9583773647877</v>
@@ -25651,7 +25651,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0906730958467</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S41" t="n">
         <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>200.8060473231146</v>
       </c>
       <c r="U41" t="n">
         <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>363.4159528301499</v>
       </c>
     </row>
     <row r="42">
@@ -25727,10 +25727,10 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>108.279659353452</v>
+        <v>108.2796593534519</v>
       </c>
       <c r="J42" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>138.7554832289223</v>
+        <v>122.2783901714379</v>
       </c>
       <c r="S42" t="n">
         <v>203.3445011265852</v>
@@ -25763,19 +25763,19 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>228.3832428485611</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M43" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O43" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P43" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q43" t="n">
         <v>133.9583773647877</v>
@@ -25870,13 +25870,13 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1317556432476</v>
+        <v>304.6187320782154</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G44" t="n">
         <v>421.7098656665098</v>
@@ -25888,7 +25888,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>61.2216581999468</v>
+        <v>61.22165819994677</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>180.0906730958466</v>
       </c>
       <c r="S44" t="n">
         <v>224.5411397984024</v>
@@ -25924,7 +25924,7 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>361.4518833376978</v>
       </c>
     </row>
     <row r="45">
@@ -25949,25 +25949,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>157.58591881448</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>157.5072550678396</v>
       </c>
       <c r="G45" t="n">
         <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>118.84092628548</v>
       </c>
       <c r="I45" t="n">
-        <v>108.279659353452</v>
+        <v>91.80256629596762</v>
       </c>
       <c r="J45" t="n">
-        <v>57.66394736845585</v>
+        <v>57.66394736845584</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26049,22 +26049,22 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721982</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147243</v>
       </c>
       <c r="M46" t="n">
         <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>12.99467108847176</v>
+        <v>12.99467108847173</v>
       </c>
       <c r="O46" t="n">
-        <v>40.88220347059112</v>
+        <v>40.88220347059111</v>
       </c>
       <c r="P46" t="n">
-        <v>64.31249240386273</v>
+        <v>64.31249240386272</v>
       </c>
       <c r="Q46" t="n">
         <v>133.9583773647877</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>392191.5207785541</v>
+        <v>391619.570516484</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>399661.0546997346</v>
+        <v>392191.5207785541</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424956.9623809445</v>
+        <v>424956.9623809446</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424956.9623809445</v>
+        <v>424956.9623809446</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424956.9623809445</v>
+        <v>424956.9623809446</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898077</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898078</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898077</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898078</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898077</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898077</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898078</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424956.9623809445</v>
+        <v>436526.6899898078</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>127589.5413650315</v>
       </c>
       <c r="C2" t="n">
+        <v>128653.2004882653</v>
+      </c>
+      <c r="D2" t="n">
         <v>128874.5116613649</v>
       </c>
-      <c r="D2" t="n">
-        <v>131937.892003274</v>
-      </c>
       <c r="E2" t="n">
-        <v>143326.6614602755</v>
+        <v>143326.6614602754</v>
       </c>
       <c r="F2" t="n">
         <v>143326.6614602755</v>
@@ -26334,28 +26334,28 @@
         <v>143326.6614602755</v>
       </c>
       <c r="I2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805634</v>
       </c>
       <c r="J2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805634</v>
       </c>
       <c r="K2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805635</v>
       </c>
       <c r="L2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805634</v>
       </c>
       <c r="M2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805634</v>
       </c>
       <c r="N2" t="n">
-        <v>143326.6614602754</v>
+        <v>146837.2036805634</v>
       </c>
       <c r="O2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805634</v>
       </c>
       <c r="P2" t="n">
-        <v>143326.6614602755</v>
+        <v>146837.2036805634</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>6633.965728588497</v>
+        <v>5491.393996085308</v>
       </c>
       <c r="D3" t="n">
-        <v>17246.70640045116</v>
+        <v>1074.579704107816</v>
       </c>
       <c r="E3" t="n">
-        <v>77889.27155607409</v>
+        <v>94068.42750429735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4381.605062939285</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>20278.67193131407</v>
       </c>
       <c r="C4" t="n">
-        <v>19887.3759790552</v>
+        <v>19954.76910593965</v>
       </c>
       <c r="D4" t="n">
-        <v>18507.14446805444</v>
+        <v>19887.37597905519</v>
       </c>
       <c r="E4" t="n">
         <v>10902.16260681535</v>
       </c>
       <c r="F4" t="n">
-        <v>10902.16260681535</v>
+        <v>10902.16260681534</v>
       </c>
       <c r="G4" t="n">
-        <v>10902.16260681535</v>
+        <v>10902.16260681534</v>
       </c>
       <c r="H4" t="n">
-        <v>10902.16260681535</v>
+        <v>10902.16260681534</v>
       </c>
       <c r="I4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="J4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="K4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="L4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="M4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="N4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="O4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
       <c r="P4" t="n">
-        <v>10902.16260681535</v>
+        <v>12342.263203004</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
+        <v>41244.43967227774</v>
+      </c>
+      <c r="D5" t="n">
         <v>41271.79307559616</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41710.80761707942</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10196.69999876385</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10196.69999876385</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10196.69999876385</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264673.8593169387</v>
+        <v>-281405.6877877559</v>
       </c>
       <c r="C6" t="n">
-        <v>61081.37687812505</v>
+        <v>45289.86141665848</v>
       </c>
       <c r="D6" t="n">
-        <v>54473.23351768899</v>
+        <v>49980.3216704738</v>
       </c>
       <c r="E6" t="n">
-        <v>44338.5272986222</v>
+        <v>12301.82732931754</v>
       </c>
       <c r="F6" t="n">
-        <v>122227.7988546963</v>
+        <v>106370.2548336149</v>
       </c>
       <c r="G6" t="n">
-        <v>122227.7988546963</v>
+        <v>106370.2548336149</v>
       </c>
       <c r="H6" t="n">
-        <v>122227.7988546963</v>
+        <v>106370.2548336149</v>
       </c>
       <c r="I6" t="n">
-        <v>122227.7988546963</v>
+        <v>103252.3142602292</v>
       </c>
       <c r="J6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231685</v>
       </c>
       <c r="K6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231685</v>
       </c>
       <c r="L6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231685</v>
       </c>
       <c r="M6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231685</v>
       </c>
       <c r="N6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231685</v>
       </c>
       <c r="O6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231684</v>
       </c>
       <c r="P6" t="n">
-        <v>122227.7988546963</v>
+        <v>107633.9193231685</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
+        <v>349.396315242098</v>
+      </c>
+      <c r="D3" t="n">
         <v>350.6510585135856</v>
-      </c>
-      <c r="D3" t="n">
-        <v>370.7893402330007</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>7.285252754319117</v>
+        <v>6.030509482831476</v>
       </c>
       <c r="D3" t="n">
-        <v>20.13828171941509</v>
+        <v>1.254743271487641</v>
       </c>
       <c r="E3" t="n">
-        <v>96.94919182038664</v>
+        <v>117.0874735398017</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409652496537026</v>
+        <v>1.404608302480795</v>
       </c>
       <c r="H5" t="n">
-        <v>14.43660363015982</v>
+        <v>14.38494477778145</v>
       </c>
       <c r="I5" t="n">
-        <v>54.34562787274375</v>
+        <v>54.1511615813909</v>
       </c>
       <c r="J5" t="n">
-        <v>119.6424935779595</v>
+        <v>119.2143739126795</v>
       </c>
       <c r="K5" t="n">
-        <v>179.3130837563719</v>
+        <v>178.6714433566916</v>
       </c>
       <c r="L5" t="n">
-        <v>222.453736347267</v>
+        <v>221.6577246937382</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5226439325573</v>
+        <v>246.6369275929811</v>
       </c>
       <c r="N5" t="n">
-        <v>251.5278190883431</v>
+        <v>250.6277709324046</v>
       </c>
       <c r="O5" t="n">
-        <v>237.5105870759031</v>
+        <v>236.6606971246112</v>
       </c>
       <c r="P5" t="n">
-        <v>202.7097910676452</v>
+        <v>201.9844296571166</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.2266110354129</v>
+        <v>151.6818948245231</v>
       </c>
       <c r="R5" t="n">
-        <v>88.54908363559406</v>
+        <v>88.23222628070931</v>
       </c>
       <c r="S5" t="n">
-        <v>32.12245626483752</v>
+        <v>32.00751169278115</v>
       </c>
       <c r="T5" t="n">
-        <v>6.170753803590836</v>
+        <v>6.148672844109683</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1123686641984636</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7515316969358334</v>
       </c>
       <c r="H6" t="n">
-        <v>7.284279536291656</v>
+        <v>7.258214020406603</v>
       </c>
       <c r="I6" t="n">
-        <v>25.96802650312874</v>
+        <v>25.87510447783462</v>
       </c>
       <c r="J6" t="n">
-        <v>71.25824954189763</v>
+        <v>71.00326440217013</v>
       </c>
       <c r="K6" t="n">
-        <v>121.7916983141008</v>
+        <v>121.355888096871</v>
       </c>
       <c r="L6" t="n">
-        <v>163.7639684124062</v>
+        <v>163.1779677930195</v>
       </c>
       <c r="M6" t="n">
-        <v>191.1048268899041</v>
+        <v>190.4209918069434</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>179.4506412376083</v>
+        <v>178.8085086126235</v>
       </c>
       <c r="P6" t="n">
-        <v>144.0249602411744</v>
+        <v>143.5095921982119</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.27687176395656</v>
+        <v>95.93236187552851</v>
       </c>
       <c r="R6" t="n">
-        <v>46.8284564558332</v>
+        <v>46.66088904308624</v>
       </c>
       <c r="S6" t="n">
-        <v>14.00950219627391</v>
+        <v>13.95937165141778</v>
       </c>
       <c r="T6" t="n">
-        <v>3.040078516735708</v>
+        <v>3.029200129315924</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04962043280852628</v>
+        <v>0.04944287479841012</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6323215809261378</v>
+        <v>0.6300589291250946</v>
       </c>
       <c r="H7" t="n">
-        <v>5.621913692234211</v>
+        <v>5.601796660766755</v>
       </c>
       <c r="I7" t="n">
-        <v>19.0156344518515</v>
+        <v>18.94759034132558</v>
       </c>
       <c r="J7" t="n">
-        <v>44.70513577147794</v>
+        <v>44.54516628914419</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46427094760035</v>
+        <v>73.2013919474428</v>
       </c>
       <c r="L7" t="n">
-        <v>94.00897394969145</v>
+        <v>93.67257933556182</v>
       </c>
       <c r="M7" t="n">
-        <v>99.11928199917629</v>
+        <v>98.76460104458188</v>
       </c>
       <c r="N7" t="n">
-        <v>96.7624470157244</v>
+        <v>96.41619958147933</v>
       </c>
       <c r="O7" t="n">
-        <v>89.37578127490541</v>
+        <v>89.05596572760888</v>
       </c>
       <c r="P7" t="n">
-        <v>76.47642102401213</v>
+        <v>76.20276357345688</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.94830983555142</v>
+        <v>52.7588436015568</v>
       </c>
       <c r="R7" t="n">
-        <v>28.43147762964252</v>
+        <v>28.32974057684289</v>
       </c>
       <c r="S7" t="n">
-        <v>11.01964064214005</v>
+        <v>10.98020879211642</v>
       </c>
       <c r="T7" t="n">
-        <v>2.701737663957134</v>
+        <v>2.692069969898131</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03436685067955066</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.490610412996987</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H8" t="n">
-        <v>15.26571389210539</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I8" t="n">
-        <v>57.46675794706638</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J8" t="n">
-        <v>126.5136955401031</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K8" t="n">
-        <v>189.6112343222656</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L8" t="n">
-        <v>235.2295027490222</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M8" t="n">
-        <v>261.7381456811573</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>265.973342517085</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O8" t="n">
-        <v>251.1510852228462</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P8" t="n">
-        <v>214.3516406519831</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.9691552365285</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R8" t="n">
-        <v>93.63455635542205</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S8" t="n">
-        <v>33.96728478616887</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T8" t="n">
-        <v>6.525147082894312</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1192488330397589</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7975468827653223</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H9" t="n">
-        <v>7.702623841444034</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>27.4593992531043</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J9" t="n">
-        <v>75.35069035810443</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K9" t="n">
-        <v>128.786331503381</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L9" t="n">
-        <v>173.1691159267425</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M9" t="n">
-        <v>202.0801904269854</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>189.7566918832037</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P9" t="n">
-        <v>152.2964744817395</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.8061599824647</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>49.51786698432415</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S9" t="n">
-        <v>14.81408354610148</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.214673619567241</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05247018965561333</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6686365151742635</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H10" t="n">
-        <v>5.944786471276638</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I10" t="n">
-        <v>20.1077235654224</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>47.27260162282042</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K10" t="n">
-        <v>77.68340603570078</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L10" t="n">
-        <v>99.40801426509006</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>104.8118130104529</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N10" t="n">
-        <v>102.3196223629853</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O10" t="n">
-        <v>94.50873216299502</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>80.86854725343998</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.98919037518311</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R10" t="n">
-        <v>30.0643291277446</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S10" t="n">
-        <v>11.65251090535511</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T10" t="n">
-        <v>2.856901473926398</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03647108264586896</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M14" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q14" t="n">
         <v>203.0572840332874</v>
@@ -32028,7 +32028,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U14" t="n">
         <v>0.1504284726201847</v>
@@ -32071,13 +32071,13 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I15" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K15" t="n">
         <v>162.4597125906563</v>
@@ -32101,13 +32101,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S15" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U15" t="n">
         <v>0.06618941491321523</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I16" t="n">
         <v>25.36523055791157</v>
@@ -32159,7 +32159,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L16" t="n">
         <v>125.3999336590344</v>
@@ -32177,19 +32177,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R16" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T16" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M17" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q17" t="n">
         <v>203.0572840332874</v>
@@ -32265,7 +32265,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U17" t="n">
         <v>0.1504284726201847</v>
@@ -32308,13 +32308,13 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I18" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K18" t="n">
         <v>162.4597125906563</v>
@@ -32338,13 +32338,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S18" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U18" t="n">
         <v>0.06618941491321523</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I19" t="n">
         <v>25.36523055791157</v>
@@ -32396,7 +32396,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L19" t="n">
         <v>125.3999336590344</v>
@@ -32414,19 +32414,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R19" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T19" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,31 +32469,31 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M20" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
         <v>118.1169067903461</v>
@@ -32545,13 +32545,13 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I21" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K21" t="n">
         <v>162.4597125906563</v>
@@ -32575,16 +32575,16 @@
         <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S21" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H22" t="n">
         <v>7.499152202429724</v>
@@ -32633,7 +32633,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>97.99505638757849</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L22" t="n">
         <v>125.3999336590344</v>
@@ -32651,19 +32651,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R22" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T22" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M23" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q23" t="n">
         <v>203.0572840332874</v>
@@ -32739,7 +32739,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U23" t="n">
         <v>0.1504284726201847</v>
@@ -32782,28 +32782,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I24" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K24" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P24" t="n">
         <v>192.1169830994376</v>
@@ -32812,13 +32812,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S24" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U24" t="n">
         <v>0.06618941491321523</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I25" t="n">
         <v>25.36523055791157</v>
@@ -32870,7 +32870,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L25" t="n">
         <v>125.3999336590344</v>
@@ -32888,19 +32888,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R25" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T25" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M26" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q26" t="n">
         <v>203.0572840332874</v>
@@ -32976,7 +32976,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U26" t="n">
         <v>0.1504284726201847</v>
@@ -33019,28 +33019,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I27" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K27" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P27" t="n">
         <v>192.1169830994376</v>
@@ -33049,13 +33049,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S27" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U27" t="n">
         <v>0.06618941491321523</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I28" t="n">
         <v>25.36523055791157</v>
@@ -33107,7 +33107,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L28" t="n">
         <v>125.3999336590344</v>
@@ -33125,19 +33125,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R28" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T28" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M29" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q29" t="n">
         <v>203.0572840332874</v>
@@ -33213,7 +33213,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U29" t="n">
         <v>0.1504284726201847</v>
@@ -33256,28 +33256,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I30" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K30" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P30" t="n">
         <v>192.1169830994376</v>
@@ -33286,13 +33286,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S30" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U30" t="n">
         <v>0.06618941491321523</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I31" t="n">
         <v>25.36523055791157</v>
@@ -33344,7 +33344,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L31" t="n">
         <v>125.3999336590344</v>
@@ -33362,19 +33362,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R31" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T31" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M32" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q32" t="n">
         <v>203.0572840332874</v>
@@ -33450,7 +33450,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U32" t="n">
         <v>0.1504284726201847</v>
@@ -33493,28 +33493,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I33" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K33" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P33" t="n">
         <v>192.1169830994376</v>
@@ -33523,13 +33523,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S33" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U33" t="n">
         <v>0.06618941491321523</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I34" t="n">
         <v>25.36523055791157</v>
@@ -33581,7 +33581,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L34" t="n">
         <v>125.3999336590344</v>
@@ -33599,19 +33599,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R34" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T34" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M35" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q35" t="n">
         <v>203.0572840332874</v>
@@ -33687,7 +33687,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U35" t="n">
         <v>0.1504284726201847</v>
@@ -33730,28 +33730,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I36" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K36" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P36" t="n">
         <v>192.1169830994376</v>
@@ -33760,13 +33760,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S36" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U36" t="n">
         <v>0.06618941491321523</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I37" t="n">
         <v>25.36523055791157</v>
@@ -33818,7 +33818,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L37" t="n">
         <v>125.3999336590344</v>
@@ -33836,19 +33836,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R37" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T37" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M38" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q38" t="n">
         <v>203.0572840332874</v>
@@ -33924,7 +33924,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U38" t="n">
         <v>0.1504284726201847</v>
@@ -33967,28 +33967,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I39" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K39" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P39" t="n">
         <v>192.1169830994376</v>
@@ -33997,13 +33997,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S39" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U39" t="n">
         <v>0.06618941491321523</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I40" t="n">
         <v>25.36523055791157</v>
@@ -34055,7 +34055,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L40" t="n">
         <v>125.3999336590344</v>
@@ -34073,19 +34073,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R40" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T40" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M41" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q41" t="n">
         <v>203.0572840332874</v>
@@ -34161,7 +34161,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U41" t="n">
         <v>0.1504284726201847</v>
@@ -34204,28 +34204,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I42" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K42" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P42" t="n">
         <v>192.1169830994376</v>
@@ -34234,13 +34234,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S42" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U42" t="n">
         <v>0.06618941491321523</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I43" t="n">
         <v>25.36523055791157</v>
@@ -34292,7 +34292,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L43" t="n">
         <v>125.3999336590344</v>
@@ -34310,19 +34310,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R43" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T43" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>72.49242113362099</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>159.5928572255928</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>239.1883228007481</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>296.7342649126229</v>
       </c>
       <c r="M44" t="n">
         <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5166055100142</v>
+        <v>335.5166055100143</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>316.8188164523023</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>270.3975299796671</v>
       </c>
       <c r="Q44" t="n">
         <v>203.0572840332874</v>
@@ -34398,7 +34398,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U44" t="n">
         <v>0.1504284726201847</v>
@@ -34441,28 +34441,28 @@
         <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.716606109259994</v>
       </c>
       <c r="I45" t="n">
         <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>95.05241244303792</v>
       </c>
       <c r="K45" t="n">
         <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P45" t="n">
         <v>192.1169830994376</v>
@@ -34471,13 +34471,13 @@
         <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>62.46515716743165</v>
       </c>
       <c r="S45" t="n">
         <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.05520482034965</v>
       </c>
       <c r="U45" t="n">
         <v>0.06618941491321523</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8434629266536493</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I46" t="n">
         <v>25.36523055791157</v>
@@ -34529,7 +34529,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757852</v>
       </c>
       <c r="L46" t="n">
         <v>125.3999336590344</v>
@@ -34547,19 +34547,19 @@
         <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>70.6285183400615</v>
       </c>
       <c r="R46" t="n">
         <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.69925845813678</v>
       </c>
       <c r="T46" t="n">
         <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04600706872656275</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>16.40150716916203</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.88693781217086</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>16.47709305748429</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.40150716916203</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>15.88693781217086</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>16.40150716916203</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>15.88693781217086</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>15.88693781217086</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>15.88693781217086</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>15.88693781217086</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.584722915966864</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>14.22662900788173</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.8113519238486</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>16.47709305748433</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
